--- a/WebContent/testingOnly/cell inheritance.xlsx
+++ b/WebContent/testingOnly/cell inheritance.xlsx
@@ -39,7 +39,7 @@
     <t>Editable Shift Cell</t>
   </si>
   <si>
-    <t>Previous Month Shift Cell</t>
+    <t>Shift Cell</t>
   </si>
 </sst>
 </file>
@@ -375,12 +375,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="41.5" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="25.875" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
